--- a/biology/Zoologie/Allactoneura/Allactoneura.xlsx
+++ b/biology/Zoologie/Allactoneura/Allactoneura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allactoneura est un genre de mouches appartenant à la famille des Mycetophilidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allactoneura est un genre de mouches appartenant à la famille des Mycetophilidae.
 </t>
         </is>
       </c>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Allactoneura est décrit en 1907 par le zoologiste et entomologiste néerlandais Johannes Cornelis Hendrik de Meijere (1866-1947)[2].
-Répartition
-Les espèces de ce genre se trouvent en Europe, en Asie du Sud-Est et en Afrique australe[3].
-Fossiles
-Selon Paleobiology Database en 2023, un seul fossile est référencé pour ce genre, celui de Allactoneura veiti
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Allactoneura est décrit en 1907 par le zoologiste et entomologiste néerlandais Johannes Cornelis Hendrik de Meijere (1866-1947).
 </t>
         </is>
       </c>
@@ -543,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se trouvent en Europe, en Asie du Sud-Est et en Afrique australe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allactoneura</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allactoneura</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, un seul fossile est référencé pour ce genre, celui de Allactoneura veiti
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Allactoneura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allactoneura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Allactoneura akasakana Sasakawa, 2005
@@ -556,8 +642,43 @@
 Allactoneura obscurata (Walter, 1865)
 Allactoneura pauensis Bechev, 1995
 Allactoneura ussuriensis Zaitzev, 1981
-Espèces fossiles
-Allactoneura veiti Théobald, 1937[2]</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allactoneura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allactoneura</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Allactoneura veiti Théobald, 1937</t>
         </is>
       </c>
     </row>
